--- a/Industry/201612-201908/HKD/MILLION/Analysis_41_27.1.4 - Other Traditional Games (HS Codes)_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_41_27.1.4 - Other Traditional Games (HS Codes)_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="384" yWindow="384"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -17600,6 +17601,804 @@
     <col bestFit="1" customWidth="1" max="1" min="1" width="9"/>
     <col bestFit="1" customWidth="1" max="3" min="2" width="8"/>
     <col bestFit="1" customWidth="1" max="4" min="4" width="9"/>
+    <col bestFit="1" customWidth="1" max="9" min="5" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" t="n">
+        <v>612.433</v>
+      </c>
+      <c r="C2" t="n">
+        <v>668.141</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.096</v>
+      </c>
+      <c r="E2" t="n">
+        <v>454.719</v>
+      </c>
+      <c r="F2" t="n">
+        <v>723.958</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8.353999999999999</v>
+      </c>
+      <c r="H2" t="n">
+        <v>405.012</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-10.931</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" t="n">
+        <v>299.217</v>
+      </c>
+      <c r="C3" t="n">
+        <v>354.969</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.633</v>
+      </c>
+      <c r="E3" t="n">
+        <v>202.473</v>
+      </c>
+      <c r="F3" t="n">
+        <v>321.18</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-9.519</v>
+      </c>
+      <c r="H3" t="n">
+        <v>165.46</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-18.28</v>
+      </c>
+      <c r="J3" t="n">
+        <v>48.857</v>
+      </c>
+      <c r="K3" t="n">
+        <v>53.128</v>
+      </c>
+      <c r="L3" t="n">
+        <v>44.527</v>
+      </c>
+      <c r="M3" t="n">
+        <v>44.364</v>
+      </c>
+      <c r="N3" t="n">
+        <v>40.853</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" t="n">
+        <v>152.708</v>
+      </c>
+      <c r="C4" t="n">
+        <v>157.824</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100.664</v>
+      </c>
+      <c r="F4" t="n">
+        <v>164.504</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.232</v>
+      </c>
+      <c r="H4" t="n">
+        <v>101.025</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="J4" t="n">
+        <v>24.935</v>
+      </c>
+      <c r="K4" t="n">
+        <v>23.621</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22.138</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22.723</v>
+      </c>
+      <c r="N4" t="n">
+        <v>24.944</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" t="n">
+        <v>19.551</v>
+      </c>
+      <c r="C5" t="n">
+        <v>24.538</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.507</v>
+      </c>
+      <c r="E5" t="n">
+        <v>75.648</v>
+      </c>
+      <c r="F5" t="n">
+        <v>111.975</v>
+      </c>
+      <c r="G5" t="n">
+        <v>356.339</v>
+      </c>
+      <c r="H5" t="n">
+        <v>68.587</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-9.333</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.192</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.673</v>
+      </c>
+      <c r="L5" t="n">
+        <v>16.636</v>
+      </c>
+      <c r="M5" t="n">
+        <v>15.467</v>
+      </c>
+      <c r="N5" t="n">
+        <v>16.935</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" t="n">
+        <v>19.532</v>
+      </c>
+      <c r="C6" t="n">
+        <v>27.427</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40.421</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11.276</v>
+      </c>
+      <c r="F6" t="n">
+        <v>22.307</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-18.668</v>
+      </c>
+      <c r="H6" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="I6" t="n">
+        <v>85.887</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.189</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.081</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9.545</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8.702</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-8.824</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.018</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15.399</v>
+      </c>
+      <c r="G7" t="n">
+        <v>76.95699999999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>14.519</v>
+      </c>
+      <c r="I7" t="n">
+        <v>141.274</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.558</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.302</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.323</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.127</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" t="n">
+        <v>36.949</v>
+      </c>
+      <c r="C8" t="n">
+        <v>28.555</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-22.718</v>
+      </c>
+      <c r="E8" t="n">
+        <v>32.413</v>
+      </c>
+      <c r="F8" t="n">
+        <v>40.136</v>
+      </c>
+      <c r="G8" t="n">
+        <v>40.558</v>
+      </c>
+      <c r="H8" t="n">
+        <v>14.488</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-55.301</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.274</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7.128</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5.544</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" t="n">
+        <v>50.135</v>
+      </c>
+      <c r="C9" t="n">
+        <v>38.606</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-22.994</v>
+      </c>
+      <c r="E9" t="n">
+        <v>16.686</v>
+      </c>
+      <c r="F9" t="n">
+        <v>30.942</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-19.852</v>
+      </c>
+      <c r="H9" t="n">
+        <v>12.116</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-27.392</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8.186</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.778</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4.274</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" t="n">
+        <v>24.287</v>
+      </c>
+      <c r="C10" t="n">
+        <v>24.665</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.555</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.147</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12.938</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-47.546</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6.674</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-6.63</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.692</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.572</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2463.518</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="G11" t="n">
+        <v>757.91</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I11" t="n">
+        <v>224.928</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.334</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1296.99</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.745</v>
+      </c>
+      <c r="G12" t="n">
+        <v>60.469</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-72.569</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.432</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-89.364</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-100</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-25.2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-68.181</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-99.089</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-92.26000000000001</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="G16" t="n">
+        <v>633.85</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="9"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" width="8"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="9"/>
     <col bestFit="1" customWidth="1" max="6" min="5" width="8"/>
     <col bestFit="1" customWidth="1" max="7" min="7" width="9"/>
     <col bestFit="1" customWidth="1" max="8" min="8" width="8"/>
